--- a/biology/Zoologie/Choerades/Choerades.xlsx
+++ b/biology/Zoologie/Choerades/Choerades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choerades est un genre d’insectes diptères brachycères de la famille des Asilidae, de la sous-famille des Laphriinae. Ce sont des prédateurs d'autres insectes, en particulier d'abeilles, de guêpes, de coléoptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes mesurent de 1 à 2 cm, leur corps est généralement noir, avec un abdomen strié de jaune et de noir. Les mâles peuvent être distingués de genres proches (comme Laphria) par l'étude des genitalia et aussi par l'aspect de leur pilosité.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont présents dans la plupart des pays d'Europe, dans le Paléarctique, le Proche-Orient et l'Amérique du Nord.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 mars 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 mars 2019) :
 Choerades amurensis (Hermann, 1914)
 Choerades antipai (Weinberg &amp; Pârvu, 1999)
 Choerades asprospilos (Young &amp; Hradský, 2007)
@@ -615,7 +633,7 @@
 Choerades venatrix (Loew, 1847)
 Choerades xanthothrix (Hermann, 1914)
 Choerades yaeyamana (Haupt &amp; Azuma, 1998)
-Selon Catalogue of Life                                   (26 décembre 2021)[2] :
+Selon Catalogue of Life                                   (26 décembre 2021) :
 Choerades auricorpus (Hobby, 1948)
 Choerades ctenoventris (Oldroyd, 1970)
 Choerades fortipes (Walker, 1857)
@@ -625,7 +643,7 @@
 Choerades rueppelii (Wiedemann, 1828)
 Choerades schoutedeni (Bromley, 1935)
 Choerades xuansonensis Tomasovic &amp; Bartolozzi, 2018
-Selon NCBI  (26 décembre 2021)[3] :
+Selon NCBI  (26 décembre 2021) :
 Choerades bella
 Choerades femorata (Meigen, 1804)
 Choerades gilvus
